--- a/Data_Ex/sample.xlsx
+++ b/Data_Ex/sample.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Men's Urban Pipeline™ Ultimate Heather Tee</t>
+  </si>
+  <si>
+    <t>$10.00</t>
   </si>
 </sst>
 </file>
@@ -65,9 +68,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
